--- a/Log/subjective.xlsx
+++ b/Log/subjective.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4080" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>performance</t>
   </si>
@@ -75,6 +76,54 @@
   </si>
   <si>
     <t>SQUADCone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luyiqin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guyizheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanyukang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanyukang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huyuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,6 +641,580 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>2013011350</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2016310587</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>2015310591</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2015210866</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
